--- a/Respuestas1.xlsx
+++ b/Respuestas1.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Día de entrega de calificaciones</t>
+          <t>Día de reporte 1</t>
         </is>
       </c>
     </row>

--- a/Respuestas1.xlsx
+++ b/Respuestas1.xlsx
@@ -461,8 +461,10 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>44265</v>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Sun Mar 14 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -476,8 +478,10 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>44266</v>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Sun Mar 14 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -491,8 +495,10 @@
           <t>3.3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>44267</v>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Sun Mar 14 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -506,8 +512,10 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>44268</v>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Sun Mar 14 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -521,8 +529,10 @@
           <t>1.9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>44269</v>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Sun Mar 14 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Respuestas1.xlsx
+++ b/Respuestas1.xlsx
@@ -478,10 +478,8 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Sun Mar 14 00:00:00 de 2021</t>
-        </is>
+      <c r="C3" s="1" t="n">
+        <v>44266</v>
       </c>
     </row>
     <row r="4">
@@ -495,10 +493,8 @@
           <t>3.3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Sun Mar 14 00:00:00 de 2021</t>
-        </is>
+      <c r="C4" s="1" t="n">
+        <v>44267</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +508,8 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Sun Mar 14 00:00:00 de 2021</t>
-        </is>
+      <c r="C5" s="1" t="n">
+        <v>44268</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +523,8 @@
           <t>1.9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Sun Mar 14 00:00:00 de 2021</t>
-        </is>
+      <c r="C6" s="1" t="n">
+        <v>44269</v>
       </c>
     </row>
   </sheetData>

--- a/Respuestas1.xlsx
+++ b/Respuestas1.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Sun Mar 14 00:00:00 de 2021</t>
+          <t>Wed Mar 10 00:00:00 de 2021</t>
         </is>
       </c>
     </row>
@@ -478,8 +478,10 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>44266</v>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Thu Mar 11 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -493,8 +495,10 @@
           <t>3.3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>44267</v>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Fri Mar 12 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -508,8 +512,10 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>44268</v>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Sat Mar 13 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -523,8 +529,10 @@
           <t>1.9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>44269</v>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Sun Mar 14 00:00:00 de 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Respuestas1.xlsx
+++ b/Respuestas1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Día de reporte 1</t>
         </is>
       </c>
@@ -461,7 +466,10 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="n">
+        <v>44265</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Wed Mar 10 00:00:00 de 2021</t>
         </is>
@@ -478,7 +486,10 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="1" t="n">
+        <v>44266</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Thu Mar 11 00:00:00 de 2021</t>
         </is>
@@ -495,7 +506,10 @@
           <t>3.3</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="1" t="n">
+        <v>44267</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Fri Mar 12 00:00:00 de 2021</t>
         </is>
@@ -512,7 +526,10 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>44268</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sat Mar 13 00:00:00 de 2021</t>
         </is>
@@ -529,7 +546,10 @@
           <t>1.9</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>44269</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sun Mar 14 00:00:00 de 2021</t>
         </is>
